--- a/2des/2desfreq-w.xlsx
+++ b/2des/2desfreq-w.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2021\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81984ECE-A81D-42A2-BCD2-01A609ECAAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Planejamento" sheetId="3" r:id="rId1"/>
     <sheet name="Atividades" sheetId="4" r:id="rId2"/>
-    <sheet name="PWBE" sheetId="5" r:id="rId3"/>
-    <sheet name="PROJ" sheetId="11" r:id="rId4"/>
+    <sheet name="PROJ" sheetId="11" r:id="rId3"/>
+    <sheet name="PWBE" sheetId="5" r:id="rId4"/>
     <sheet name="PWFE" sheetId="9" r:id="rId5"/>
     <sheet name="BCD" sheetId="6" r:id="rId6"/>
     <sheet name="INDMO" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
   <si>
     <t>Aluno</t>
   </si>
@@ -256,12 +258,21 @@
   </si>
   <si>
     <t>ATVD</t>
+  </si>
+  <si>
+    <t>REC</t>
+  </si>
+  <si>
+    <t>ATV+AVA</t>
+  </si>
+  <si>
+    <t>Média</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -378,12 +389,41 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -425,6 +465,293 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Planejamento"/>
+      <sheetName val="Atividades"/>
+      <sheetName val="PWBE"/>
+      <sheetName val="PROJ"/>
+      <sheetName val="PWFE"/>
+      <sheetName val="BCD"/>
+      <sheetName val="INDMO"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="F3">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="F16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="F19">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="F21">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="F22">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="F23">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="F24">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="F25">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="F26">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="F27">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="F28">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="G2">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>88</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="G11">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="G12">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="G13">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="G14">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="G15">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="G16">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="G17">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="G18">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="G19">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="G20">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="G21">
+            <v>85</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="G22">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="G23">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="G24">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="G25">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="G26">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="G27">
+            <v>80</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,7 +951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -641,14 +968,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -711,14 +1038,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -775,7 +1102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1373,7 +1700,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B33">
+  <sortState ref="A3:B33">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1382,7 +1709,678 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>75</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>75</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G27" si="0">AVERAGE(B3:F3)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>75</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>75</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>75</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <v>75</v>
+      </c>
+      <c r="F21">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>75</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>75</v>
+      </c>
+      <c r="F22">
+        <v>75</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>75</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>75</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>75</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>75</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2072,7 +3070,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G27">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2081,683 +3079,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>75</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>75</v>
-      </c>
-      <c r="G2">
-        <f>AVERAGE(B2:F2)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>75</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>75</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G27" si="0">AVERAGE(B3:F3)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>75</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>90</v>
-      </c>
-      <c r="D5">
-        <v>75</v>
-      </c>
-      <c r="E5">
-        <v>75</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>75</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>75</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>75</v>
-      </c>
-      <c r="C8">
-        <v>75</v>
-      </c>
-      <c r="D8">
-        <v>75</v>
-      </c>
-      <c r="E8">
-        <v>75</v>
-      </c>
-      <c r="F8">
-        <v>75</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>50</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-      <c r="C10">
-        <v>75</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-      <c r="E10">
-        <v>75</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>75</v>
-      </c>
-      <c r="D11">
-        <v>50</v>
-      </c>
-      <c r="E11">
-        <v>75</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>50</v>
-      </c>
-      <c r="D12">
-        <v>50</v>
-      </c>
-      <c r="E12">
-        <v>75</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>75</v>
-      </c>
-      <c r="C13">
-        <v>75</v>
-      </c>
-      <c r="D13">
-        <v>50</v>
-      </c>
-      <c r="E13">
-        <v>75</v>
-      </c>
-      <c r="F13">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>75</v>
-      </c>
-      <c r="C15">
-        <v>75</v>
-      </c>
-      <c r="D15">
-        <v>75</v>
-      </c>
-      <c r="E15">
-        <v>75</v>
-      </c>
-      <c r="F15">
-        <v>75</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>75</v>
-      </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <v>75</v>
-      </c>
-      <c r="F16">
-        <v>75</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>100</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <v>75</v>
-      </c>
-      <c r="E17">
-        <v>75</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18">
-        <v>100</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>100</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <v>75</v>
-      </c>
-      <c r="E19">
-        <v>75</v>
-      </c>
-      <c r="F19">
-        <v>100</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>100</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <v>75</v>
-      </c>
-      <c r="E21">
-        <v>75</v>
-      </c>
-      <c r="F21">
-        <v>75</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>100</v>
-      </c>
-      <c r="C22">
-        <v>75</v>
-      </c>
-      <c r="D22">
-        <v>75</v>
-      </c>
-      <c r="E22">
-        <v>75</v>
-      </c>
-      <c r="F22">
-        <v>75</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <v>100</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <v>75</v>
-      </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="F23">
-        <v>100</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>100</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <v>75</v>
-      </c>
-      <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="F24">
-        <v>100</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <v>75</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="D25">
-        <v>50</v>
-      </c>
-      <c r="E25">
-        <v>100</v>
-      </c>
-      <c r="F25">
-        <v>50</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26">
-        <v>100</v>
-      </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26">
-        <v>75</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26">
-        <v>100</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <v>100</v>
-      </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-      <c r="D27">
-        <v>75</v>
-      </c>
-      <c r="E27">
-        <v>50</v>
-      </c>
-      <c r="F27">
-        <v>75</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2793,7 +3120,7 @@
         <v>50</v>
       </c>
       <c r="D2">
-        <f>PROJ!G2</f>
+        <f>[1]PROJ!G2</f>
         <v>90</v>
       </c>
       <c r="E2" s="7">
@@ -2812,7 +3139,7 @@
         <v>85</v>
       </c>
       <c r="D3">
-        <f>PROJ!G3</f>
+        <f>[1]PROJ!G3</f>
         <v>70</v>
       </c>
       <c r="E3" s="7">
@@ -2831,7 +3158,7 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <f>PROJ!G4</f>
+        <f>[1]PROJ!G4</f>
         <v>95</v>
       </c>
       <c r="E4" s="7">
@@ -2840,7 +3167,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -2850,7 +3177,7 @@
         <v>80</v>
       </c>
       <c r="D5">
-        <f>PROJ!G5</f>
+        <f>[1]PROJ!G5</f>
         <v>88</v>
       </c>
       <c r="E5" s="7">
@@ -2869,7 +3196,7 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <f>PROJ!G6</f>
+        <f>[1]PROJ!G6</f>
         <v>75</v>
       </c>
       <c r="E6" s="7">
@@ -2888,7 +3215,7 @@
         <v>90</v>
       </c>
       <c r="D7">
-        <f>PROJ!G7</f>
+        <f>[1]PROJ!G7</f>
         <v>100</v>
       </c>
       <c r="E7" s="7">
@@ -2907,7 +3234,7 @@
         <v>60</v>
       </c>
       <c r="D8">
-        <f>PROJ!G8</f>
+        <f>[1]PROJ!G8</f>
         <v>75</v>
       </c>
       <c r="E8" s="7">
@@ -2926,12 +3253,12 @@
         <v>40</v>
       </c>
       <c r="D9">
-        <f>PROJ!G9</f>
-        <v>25</v>
+        <f>[1]PROJ!G9</f>
+        <v>0</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
-        <v>26.666666666666668</v>
+        <v>18.333333333333332</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2945,7 +3272,7 @@
         <v>70</v>
       </c>
       <c r="D10">
-        <f>PROJ!G10</f>
+        <f>[1]PROJ!G10</f>
         <v>80</v>
       </c>
       <c r="E10" s="7">
@@ -2964,7 +3291,7 @@
         <v>70</v>
       </c>
       <c r="D11">
-        <f>PROJ!G11</f>
+        <f>[1]PROJ!G11</f>
         <v>80</v>
       </c>
       <c r="E11" s="7">
@@ -2983,7 +3310,7 @@
         <v>65</v>
       </c>
       <c r="D12">
-        <f>PROJ!G12</f>
+        <f>[1]PROJ!G12</f>
         <v>65</v>
       </c>
       <c r="E12" s="7">
@@ -3002,7 +3329,7 @@
         <v>85</v>
       </c>
       <c r="D13">
-        <f>PROJ!G13</f>
+        <f>[1]PROJ!G13</f>
         <v>65</v>
       </c>
       <c r="E13" s="7">
@@ -3021,7 +3348,7 @@
         <v>100</v>
       </c>
       <c r="D14">
-        <f>PROJ!G14</f>
+        <f>[1]PROJ!G14</f>
         <v>100</v>
       </c>
       <c r="E14" s="7">
@@ -3040,7 +3367,7 @@
         <v>80</v>
       </c>
       <c r="D15">
-        <f>PROJ!G15</f>
+        <f>[1]PROJ!G15</f>
         <v>75</v>
       </c>
       <c r="E15" s="7">
@@ -3059,7 +3386,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <f>PROJ!G16</f>
+        <f>[1]PROJ!G16</f>
         <v>65</v>
       </c>
       <c r="E16" s="7">
@@ -3078,7 +3405,7 @@
         <v>100</v>
       </c>
       <c r="D17">
-        <f>PROJ!G17</f>
+        <f>[1]PROJ!G17</f>
         <v>90</v>
       </c>
       <c r="E17" s="7">
@@ -3097,7 +3424,7 @@
         <v>100</v>
       </c>
       <c r="D18">
-        <f>PROJ!G18</f>
+        <f>[1]PROJ!G18</f>
         <v>100</v>
       </c>
       <c r="E18" s="7">
@@ -3116,7 +3443,7 @@
         <v>90</v>
       </c>
       <c r="D19">
-        <f>PROJ!G19</f>
+        <f>[1]PROJ!G19</f>
         <v>90</v>
       </c>
       <c r="E19" s="7">
@@ -3135,7 +3462,7 @@
         <v>100</v>
       </c>
       <c r="D20">
-        <f>PROJ!G20</f>
+        <f>[1]PROJ!G20</f>
         <v>100</v>
       </c>
       <c r="E20" s="7">
@@ -3154,7 +3481,7 @@
         <v>80</v>
       </c>
       <c r="D21">
-        <f>PROJ!G21</f>
+        <f>[1]PROJ!G21</f>
         <v>85</v>
       </c>
       <c r="E21" s="7">
@@ -3173,7 +3500,7 @@
         <v>80</v>
       </c>
       <c r="D22">
-        <f>PROJ!G22</f>
+        <f>[1]PROJ!G22</f>
         <v>80</v>
       </c>
       <c r="E22" s="7">
@@ -3192,7 +3519,7 @@
         <v>100</v>
       </c>
       <c r="D23">
-        <f>PROJ!G23</f>
+        <f>[1]PROJ!G23</f>
         <v>95</v>
       </c>
       <c r="E23" s="7">
@@ -3211,7 +3538,7 @@
         <v>75</v>
       </c>
       <c r="D24">
-        <f>PROJ!G24</f>
+        <f>[1]PROJ!G24</f>
         <v>95</v>
       </c>
       <c r="E24" s="7">
@@ -3230,7 +3557,7 @@
         <v>50</v>
       </c>
       <c r="D25">
-        <f>PROJ!G25</f>
+        <f>[1]PROJ!G25</f>
         <v>75</v>
       </c>
       <c r="E25" s="7">
@@ -3249,7 +3576,7 @@
         <v>85</v>
       </c>
       <c r="D26">
-        <f>PROJ!G26</f>
+        <f>[1]PROJ!G26</f>
         <v>95</v>
       </c>
       <c r="E26" s="7">
@@ -3268,7 +3595,7 @@
         <v>90</v>
       </c>
       <c r="D27">
-        <f>PROJ!G27</f>
+        <f>[1]PROJ!G27</f>
         <v>80</v>
       </c>
       <c r="E27" s="7">
@@ -3278,7 +3605,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E27">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3287,7 +3614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3402,7 +3729,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F3:F27" si="1">AVERAGE(D5:E5)</f>
+        <f t="shared" ref="F5:F27" si="1">AVERAGE(D5:E5)</f>
         <v>92</v>
       </c>
     </row>
@@ -3892,7 +4219,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F27">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3901,449 +4228,708 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="F1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="11">
         <v>55</v>
       </c>
-      <c r="C2">
-        <f>Atividades!F3</f>
+      <c r="D2" s="11">
+        <f>[1]Atividades!F3</f>
         <v>8</v>
       </c>
-      <c r="D2">
-        <f>PROJ!G2</f>
+      <c r="E2" s="11">
+        <f>[1]PROJ!G2</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="F2" s="11">
+        <f>SUM(B2,D2)</f>
+        <v>63</v>
+      </c>
+      <c r="G2" s="11">
+        <f>AVERAGE(E2,F2)</f>
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11">
         <v>70</v>
       </c>
-      <c r="C3">
-        <f>Atividades!F4</f>
+      <c r="D3" s="11">
+        <f>[1]Atividades!F4</f>
         <v>5</v>
       </c>
-      <c r="D3">
-        <f>PROJ!G3</f>
+      <c r="E3" s="11">
+        <f>[1]PROJ!G3</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="F3" s="11">
+        <f>SUM(B3,D3)</f>
+        <v>75</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G28" si="0">AVERAGE(E3,F3)</f>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <f>Atividades!F5</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>PROJ!G4</f>
+      <c r="B4" s="11">
+        <v>100</v>
+      </c>
+      <c r="D4" s="11">
+        <f>[1]Atividades!F5</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <f>[1]PROJ!G4</f>
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="11">
+        <f>SUM(B4,D4)</f>
+        <v>100</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>30</v>
       </c>
-      <c r="C5">
-        <f>Atividades!F6</f>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f>PROJ!G5</f>
+      <c r="D5" s="11">
+        <f>[1]Atividades!F6</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <f>[1]PROJ!G5</f>
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="F5" s="11">
+        <f>SUM(B5,D5)</f>
+        <v>30</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
-        <f>Atividades!F7</f>
+      <c r="B6" s="11">
+        <v>100</v>
+      </c>
+      <c r="D6" s="11">
+        <f>[1]Atividades!F7</f>
         <v>5</v>
       </c>
-      <c r="D6">
-        <f>PROJ!G6</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E6" s="11">
+        <f>[1]PROJ!G6</f>
+        <v>75</v>
+      </c>
+      <c r="F6" s="11">
+        <v>100</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="11">
         <v>80</v>
       </c>
-      <c r="C7">
-        <f>Atividades!F8</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f>PROJ!G7</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D7" s="11">
+        <f>[1]Atividades!F8</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <f>[1]PROJ!G7</f>
+        <v>100</v>
+      </c>
+      <c r="F7" s="11">
+        <f>SUM(B7,D7)</f>
+        <v>80</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="11">
         <v>30</v>
       </c>
-      <c r="C8">
-        <f>Atividades!F9</f>
+      <c r="C8" s="11">
+        <v>60</v>
+      </c>
+      <c r="D8" s="11">
+        <f>[1]Atividades!F9</f>
         <v>7</v>
       </c>
-      <c r="D8">
-        <f>PROJ!G8</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E8" s="11">
+        <f>[1]PROJ!G8</f>
+        <v>75</v>
+      </c>
+      <c r="F8" s="11">
+        <f>SUM(C8,D8)</f>
+        <v>67</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="11">
         <v>30</v>
       </c>
-      <c r="C9">
-        <f>Atividades!F10</f>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f>PROJ!G9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C9" s="11">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11">
+        <f>[1]Atividades!F10</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <f>[1]PROJ!G9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <f>SUM(B9,D9)</f>
+        <v>30</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <f>Atividades!F11</f>
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f>PROJ!G10</f>
+      <c r="B10" s="17">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>60</v>
+      </c>
+      <c r="D10" s="11">
+        <f>[1]Atividades!F11</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <f>[1]PROJ!G10</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="F10" s="11">
+        <f>SUM(C10,D10)</f>
+        <v>60</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="11">
         <v>30</v>
       </c>
-      <c r="C11">
-        <f>Atividades!F12</f>
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f>PROJ!G11</f>
+      <c r="C11" s="11">
+        <v>45</v>
+      </c>
+      <c r="D11" s="11">
+        <f>[1]Atividades!F12</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <f>[1]PROJ!G11</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="F11" s="11">
+        <f>SUM(C11,D11)</f>
+        <v>45</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="11">
         <v>40</v>
       </c>
-      <c r="C12">
-        <f>Atividades!F13</f>
+      <c r="C12" s="11">
+        <v>50</v>
+      </c>
+      <c r="D12" s="11">
+        <f>[1]Atividades!F13</f>
         <v>9</v>
       </c>
-      <c r="D12">
-        <f>PROJ!G12</f>
+      <c r="E12" s="11">
+        <f>[1]PROJ!G12</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="F12" s="11">
+        <f>SUM(C12,D12)</f>
+        <v>59</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <f>Atividades!F14</f>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f>PROJ!G13</f>
+      <c r="B13" s="11">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11">
+        <v>40</v>
+      </c>
+      <c r="D13" s="11">
+        <f>[1]Atividades!F14</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <f>[1]PROJ!G13</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="F13" s="11">
+        <f>SUM(C13,D13)</f>
+        <v>40</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="11">
         <v>95</v>
       </c>
-      <c r="C14">
-        <f>Atividades!F15</f>
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f>PROJ!G14</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D14" s="11">
+        <f>[1]Atividades!F15</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <f>[1]PROJ!G14</f>
+        <v>100</v>
+      </c>
+      <c r="F14" s="11">
+        <f>SUM(B14,D14)</f>
+        <v>95</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="11">
         <v>30</v>
       </c>
-      <c r="C15">
-        <f>Atividades!F16</f>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f>PROJ!G15</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C15" s="11">
+        <v>40</v>
+      </c>
+      <c r="D15" s="11">
+        <f>[1]Atividades!F16</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <f>[1]PROJ!G15</f>
+        <v>75</v>
+      </c>
+      <c r="F15" s="11">
+        <f>SUM(C15,D15)</f>
+        <v>40</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="11">
         <v>30</v>
       </c>
-      <c r="C16">
-        <f>Atividades!F17</f>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f>PROJ!G16</f>
+      <c r="C16" s="11">
+        <v>40</v>
+      </c>
+      <c r="D16" s="11">
+        <f>[1]Atividades!F17</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <f>[1]PROJ!G16</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="F16" s="11">
+        <f>SUM(C16,D16)</f>
+        <v>40</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
-        <v>100</v>
-      </c>
-      <c r="C17">
-        <f>Atividades!F18</f>
+      <c r="B17" s="11">
+        <v>100</v>
+      </c>
+      <c r="D17" s="11">
+        <f>[1]Atividades!F18</f>
         <v>10</v>
       </c>
-      <c r="D17">
-        <f>PROJ!G17</f>
+      <c r="E17" s="11">
+        <f>[1]PROJ!G17</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="F17" s="11">
+        <v>100</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-      <c r="C18">
-        <f>Atividades!F19</f>
+      <c r="B18" s="11">
+        <v>100</v>
+      </c>
+      <c r="D18" s="11">
+        <f>[1]Atividades!F19</f>
         <v>10</v>
       </c>
-      <c r="D18">
-        <f>PROJ!G18</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E18" s="11">
+        <f>[1]PROJ!G18</f>
+        <v>100</v>
+      </c>
+      <c r="F18" s="11">
+        <v>100</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="11">
         <v>50</v>
       </c>
-      <c r="C19">
-        <f>Atividades!F20</f>
+      <c r="D19" s="11">
+        <f>[1]Atividades!F20</f>
         <v>8</v>
       </c>
-      <c r="D19">
-        <f>PROJ!G19</f>
+      <c r="E19" s="11">
+        <f>[1]PROJ!G19</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="F19" s="11">
+        <f t="shared" ref="F19:F28" si="1">SUM(B19,D19)</f>
+        <v>58</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="11">
         <v>95</v>
       </c>
-      <c r="C20">
-        <f>Atividades!F21</f>
+      <c r="D20" s="11">
+        <f>[1]Atividades!F21</f>
         <v>9</v>
       </c>
-      <c r="D20">
-        <f>PROJ!G20</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E20" s="11">
+        <f>[1]PROJ!G20</f>
+        <v>100</v>
+      </c>
+      <c r="F20" s="11">
+        <v>100</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="11">
         <v>65</v>
       </c>
-      <c r="C21">
-        <f>Atividades!F22</f>
+      <c r="D21" s="11">
+        <f>[1]Atividades!F22</f>
         <v>7</v>
       </c>
-      <c r="D21">
-        <f>PROJ!G21</f>
+      <c r="E21" s="11">
+        <f>[1]PROJ!G21</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="F21" s="11">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="0"/>
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="11">
         <v>40</v>
       </c>
-      <c r="C22">
-        <f>Atividades!F23</f>
+      <c r="C22" s="11">
+        <v>50</v>
+      </c>
+      <c r="D22" s="11">
+        <f>[1]Atividades!F23</f>
         <v>7</v>
       </c>
-      <c r="D22">
-        <f>PROJ!G22</f>
+      <c r="E22" s="11">
+        <f>[1]PROJ!G22</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="F22" s="11">
+        <f>SUM(C22,D22)</f>
+        <v>57</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="11">
         <v>70</v>
       </c>
-      <c r="C23">
-        <f>Atividades!F24</f>
+      <c r="D23" s="11">
+        <f>[1]Atividades!F24</f>
         <v>9</v>
       </c>
-      <c r="D23">
-        <f>PROJ!G23</f>
+      <c r="E23" s="11">
+        <f>[1]PROJ!G23</f>
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="F23" s="11">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24">
+      <c r="B25" s="11">
         <v>25</v>
       </c>
-      <c r="C24">
-        <f>Atividades!F25</f>
+      <c r="C25" s="11">
+        <v>80</v>
+      </c>
+      <c r="D25" s="11">
+        <f>[1]Atividades!F25</f>
         <v>9</v>
       </c>
-      <c r="D24">
-        <f>PROJ!G24</f>
+      <c r="E25" s="11">
+        <f>[1]PROJ!G24</f>
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="F25" s="11">
+        <f>SUM(C25,D25)</f>
+        <v>89</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
+      <c r="B26" s="11">
         <v>40</v>
       </c>
-      <c r="C25">
-        <f>Atividades!F26</f>
+      <c r="D26" s="11">
+        <f>[1]Atividades!F26</f>
         <v>8</v>
       </c>
-      <c r="D25">
-        <f>PROJ!G25</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="E26" s="11">
+        <f>[1]PROJ!G25</f>
+        <v>75</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="0"/>
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26">
+      <c r="B27" s="11">
         <v>55</v>
       </c>
-      <c r="C26">
-        <f>Atividades!F27</f>
+      <c r="D27" s="11">
+        <f>[1]Atividades!F27</f>
         <v>10</v>
       </c>
-      <c r="D26">
-        <f>PROJ!G26</f>
+      <c r="E27" s="11">
+        <f>[1]PROJ!G26</f>
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="F27" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27">
+      <c r="B28" s="11">
         <v>25</v>
       </c>
-      <c r="C27" s="4">
-        <f>Atividades!F28</f>
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <f>PROJ!G27</f>
+      <c r="D28" s="17">
+        <f>[1]Atividades!F28</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <f>[1]PROJ!G27</f>
         <v>80</v>
       </c>
+      <c r="F28" s="11">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G28">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2des/2desfreq-w.xlsx
+++ b/2des/2desfreq-w.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2021\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81984ECE-A81D-42A2-BCD2-01A609ECAAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E2C5F9-91D9-4C2D-9554-76A2632DF701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planejamento" sheetId="3" r:id="rId1"/>
     <sheet name="Atividades" sheetId="4" r:id="rId2"/>
-    <sheet name="PWBE" sheetId="5" r:id="rId3"/>
-    <sheet name="PROJ" sheetId="11" r:id="rId4"/>
+    <sheet name="PROJ" sheetId="11" r:id="rId3"/>
+    <sheet name="PWBE" sheetId="5" r:id="rId4"/>
     <sheet name="PWFE" sheetId="9" r:id="rId5"/>
     <sheet name="BCD" sheetId="6" r:id="rId6"/>
     <sheet name="INDMO" sheetId="8" r:id="rId7"/>
@@ -372,12 +372,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,14 +641,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -711,14 +711,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -779,7 +779,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E28"/>
+      <selection activeCell="B25" sqref="B25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1382,6 +1382,677 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>75</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>75</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G27" si="0">AVERAGE(B3:F3)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>75</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>75</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>75</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <v>75</v>
+      </c>
+      <c r="F21">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>75</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>75</v>
+      </c>
+      <c r="F22">
+        <v>75</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>75</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>75</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>75</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>75</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N27"/>
   <sheetViews>
@@ -1423,10 +2094,10 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
         <v>100</v>
       </c>
       <c r="D2">
@@ -1448,10 +2119,10 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13">
         <v>66.666666666666671</v>
       </c>
       <c r="D3">
@@ -1474,10 +2145,10 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>100</v>
       </c>
       <c r="D4">
@@ -1499,10 +2170,10 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
         <v>50</v>
       </c>
       <c r="D5">
@@ -1524,10 +2195,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
         <v>50</v>
       </c>
       <c r="D6">
@@ -1549,10 +2220,10 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>6</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>50</v>
       </c>
       <c r="D7">
@@ -1574,10 +2245,10 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12">
-        <v>5</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13">
         <v>100</v>
       </c>
       <c r="D8">
@@ -1599,10 +2270,10 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
         <v>33.333333333333336</v>
       </c>
       <c r="D9">
@@ -1624,10 +2295,10 @@
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="12">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
         <v>83.333333333333329</v>
       </c>
       <c r="D10">
@@ -1649,10 +2320,10 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="12">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
         <v>50</v>
       </c>
       <c r="D11">
@@ -1674,10 +2345,10 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="12">
-        <v>5</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="11">
+        <v>5</v>
+      </c>
+      <c r="C12" s="13">
         <v>50</v>
       </c>
       <c r="D12">
@@ -1699,10 +2370,10 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="12">
-        <v>5</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="11">
+        <v>5</v>
+      </c>
+      <c r="C13" s="13">
         <v>50</v>
       </c>
       <c r="D13">
@@ -1724,10 +2395,10 @@
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>6</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>83.333333333333329</v>
       </c>
       <c r="D14">
@@ -1749,10 +2420,10 @@
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="12">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
         <v>83.333333333333329</v>
       </c>
       <c r="D15">
@@ -1774,10 +2445,10 @@
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="12">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13">
         <v>66.666666666666671</v>
       </c>
       <c r="D16">
@@ -1799,10 +2470,10 @@
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="12">
-        <v>5</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="11">
+        <v>5</v>
+      </c>
+      <c r="C17" s="13">
         <v>100</v>
       </c>
       <c r="D17">
@@ -1824,10 +2495,10 @@
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>6</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>100</v>
       </c>
       <c r="D18">
@@ -1849,10 +2520,10 @@
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="12">
-        <v>5</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="11">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13">
         <v>50</v>
       </c>
       <c r="D19">
@@ -1874,10 +2545,10 @@
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="12">
-        <v>5</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="B20" s="11">
+        <v>5</v>
+      </c>
+      <c r="C20" s="13">
         <v>83.333333333333329</v>
       </c>
       <c r="D20">
@@ -1899,10 +2570,10 @@
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="12">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="11">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
         <v>100</v>
       </c>
       <c r="D21">
@@ -1924,10 +2595,10 @@
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="12">
-        <v>5</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="B22" s="11">
+        <v>5</v>
+      </c>
+      <c r="C22" s="13">
         <v>83.333333333333329</v>
       </c>
       <c r="D22">
@@ -1949,10 +2620,10 @@
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="12">
-        <v>0</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="B23" s="11">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13">
         <v>16.666666666666668</v>
       </c>
       <c r="D23">
@@ -1974,10 +2645,10 @@
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="12">
-        <v>5</v>
-      </c>
-      <c r="C24" s="14">
+      <c r="B24" s="11">
+        <v>5</v>
+      </c>
+      <c r="C24" s="13">
         <v>50</v>
       </c>
       <c r="D24">
@@ -1999,10 +2670,10 @@
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="12">
-        <v>5</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="11">
+        <v>5</v>
+      </c>
+      <c r="C25" s="13">
         <v>83.333333333333329</v>
       </c>
       <c r="D25">
@@ -2024,10 +2695,10 @@
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="12">
-        <v>5</v>
-      </c>
-      <c r="C26" s="14">
+      <c r="B26" s="11">
+        <v>5</v>
+      </c>
+      <c r="C26" s="13">
         <v>66.666666666666671</v>
       </c>
       <c r="D26">
@@ -2049,10 +2720,10 @@
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="12">
-        <v>5</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="11">
+        <v>5</v>
+      </c>
+      <c r="C27" s="13">
         <v>100</v>
       </c>
       <c r="D27">
@@ -2078,677 +2749,6 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>75</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>75</v>
-      </c>
-      <c r="G2">
-        <f>AVERAGE(B2:F2)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>75</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>75</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G27" si="0">AVERAGE(B3:F3)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>75</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>90</v>
-      </c>
-      <c r="D5">
-        <v>75</v>
-      </c>
-      <c r="E5">
-        <v>75</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>75</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>75</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>75</v>
-      </c>
-      <c r="C8">
-        <v>75</v>
-      </c>
-      <c r="D8">
-        <v>75</v>
-      </c>
-      <c r="E8">
-        <v>75</v>
-      </c>
-      <c r="F8">
-        <v>75</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>50</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-      <c r="C10">
-        <v>75</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-      <c r="E10">
-        <v>75</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>75</v>
-      </c>
-      <c r="D11">
-        <v>50</v>
-      </c>
-      <c r="E11">
-        <v>75</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>50</v>
-      </c>
-      <c r="D12">
-        <v>50</v>
-      </c>
-      <c r="E12">
-        <v>75</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>75</v>
-      </c>
-      <c r="C13">
-        <v>75</v>
-      </c>
-      <c r="D13">
-        <v>50</v>
-      </c>
-      <c r="E13">
-        <v>75</v>
-      </c>
-      <c r="F13">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>75</v>
-      </c>
-      <c r="C15">
-        <v>75</v>
-      </c>
-      <c r="D15">
-        <v>75</v>
-      </c>
-      <c r="E15">
-        <v>75</v>
-      </c>
-      <c r="F15">
-        <v>75</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>75</v>
-      </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <v>75</v>
-      </c>
-      <c r="F16">
-        <v>75</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>100</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <v>75</v>
-      </c>
-      <c r="E17">
-        <v>75</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18">
-        <v>100</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>100</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <v>75</v>
-      </c>
-      <c r="E19">
-        <v>75</v>
-      </c>
-      <c r="F19">
-        <v>100</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>100</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <v>75</v>
-      </c>
-      <c r="E21">
-        <v>75</v>
-      </c>
-      <c r="F21">
-        <v>75</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>100</v>
-      </c>
-      <c r="C22">
-        <v>75</v>
-      </c>
-      <c r="D22">
-        <v>75</v>
-      </c>
-      <c r="E22">
-        <v>75</v>
-      </c>
-      <c r="F22">
-        <v>75</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <v>100</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <v>75</v>
-      </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="F23">
-        <v>100</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>100</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <v>75</v>
-      </c>
-      <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="F24">
-        <v>100</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <v>75</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="D25">
-        <v>50</v>
-      </c>
-      <c r="E25">
-        <v>100</v>
-      </c>
-      <c r="F25">
-        <v>50</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26">
-        <v>100</v>
-      </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26">
-        <v>75</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26">
-        <v>100</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <v>100</v>
-      </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-      <c r="D27">
-        <v>75</v>
-      </c>
-      <c r="E27">
-        <v>50</v>
-      </c>
-      <c r="F27">
-        <v>75</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -3291,7 +3291,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3402,7 +3402,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F3:F27" si="1">AVERAGE(D5:E5)</f>
+        <f t="shared" ref="F5:F27" si="1">AVERAGE(D5:E5)</f>
         <v>92</v>
       </c>
     </row>
@@ -3904,8 +3904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
